--- a/results/Homeopathy_excluded/mod2.galtan_corrupt.galtan.eff.COMB.xlsx
+++ b/results/Homeopathy_excluded/mod2.galtan_corrupt.galtan.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0152188772026076</v>
+        <v>-0.0152179254262936</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0373079957960338</v>
+        <v>0.0373079455030808</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0883412052982055</v>
+        <v>-0.0883401549495151</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0579034508929904</v>
+        <v>0.0579043040969279</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.407925348920123</v>
+        <v>-0.40790038746671</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6833284818441</v>
+        <v>0.683346808286647</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.100460550851711</v>
+        <v>-0.100461553423848</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0402867233579519</v>
+        <v>0.0402866697075634</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.179421077688425</v>
+        <v>-0.179421975107733</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0215000240149966</v>
+        <v>-0.0215011317399631</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.49363915648111</v>
+        <v>-2.49366736325161</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0126441011206979</v>
+        <v>0.0126430964926261</v>
       </c>
     </row>
   </sheetData>
